--- a/Data/F022.PDBCM2.FLU.D030.Z.CLP.D.xlsx
+++ b/Data/F022.PDBCM2.FLU.D030.Z.CLP.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -425,7 +425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">

--- a/Data/F022.PDBCM2.FLU.D030.Z.CLP.D.xlsx
+++ b/Data/F022.PDBCM2.FLU.D030.Z.CLP.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -425,7 +425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">

--- a/Data/F022.PDBCM2.FLU.D030.Z.CLP.D.xlsx
+++ b/Data/F022.PDBCM2.FLU.D030.Z.CLP.D.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,22 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -358,219 +345,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>indexDateString</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>statusCode</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>30-09-2008</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>01-10-2008</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>NeuN</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ND</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>02-10-2008</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>NeuN</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ND</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>03-10-2008</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>NeuN</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ND</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>04-10-2008</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>NeuN</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ND</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>05-10-2008</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>NeuN</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ND</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>06-10-2008</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>NeuN</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ND</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>07-10-2008</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>NeuN</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ND</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>08-10-2008</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>NeuN</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ND</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>09-10-2008</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>NeuN</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ND</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>10-10-2008</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1600</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>